--- a/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475"/>
@@ -24,13 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>No</t>
   </si>
@@ -339,12 +338,86 @@
     <t>通过</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.propertis</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>sysconfig.sync_queue_maxnum=12000</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源同步队列上限</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.7</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>不紧急</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源同步队列上限限制</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>无资源测试</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -495,6 +568,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -759,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +1082,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,9 +1137,9 @@
     <cellStyle name="超链接" xfId="19" builtinId="8"/>
     <cellStyle name="甘特图" xfId="4"/>
     <cellStyle name="甘特图 2" xfId="11"/>
-    <cellStyle name="着色 4" xfId="16" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="16" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1064,11 +1150,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1415,7 +1499,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1651,7 +1735,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>46</v>
@@ -1685,7 +1769,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="P4" s="63"/>
       <c r="Q4" s="60">
@@ -1708,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>36</v>
@@ -1729,7 +1813,7 @@
         <v>42751</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="J5" s="60">
         <v>42751</v>
@@ -1739,7 +1823,7 @@
         <v>51</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N5" s="67" t="s">
         <v>31</v>
@@ -1754,7 +1838,7 @@
         <v>42751</v>
       </c>
       <c r="R5" s="63" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="S5" s="72" t="s">
         <v>42</v>
@@ -1768,24 +1852,56 @@
       <c r="X5" s="77"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="60">
+        <v>42751</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="60">
+        <v>42751</v>
+      </c>
       <c r="K6" s="59"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="59"/>
+      <c r="L6" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>116</v>
+      </c>
       <c r="P6" s="63"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="60">
+        <v>42751</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>117</v>
+      </c>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
@@ -5973,19 +6089,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6023,8 +6139,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6036,8 +6152,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6049,8 +6165,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6062,8 +6178,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6075,8 +6191,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6088,8 +6204,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6101,8 +6217,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6114,8 +6230,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6157,7 +6273,345 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16 F4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6 I4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6176,36 +6630,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6249,332 +6703,42 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>106</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6785,7 +6949,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6804,36 +6968,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6877,18 +7041,42 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>106</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7099,7 +7287,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7120,36 +7308,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7193,18 +7381,42 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>106</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -7402,7 +7614,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 20170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="8475"/>
@@ -24,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -119,10 +119,6 @@
     <t>New Features</t>
   </si>
   <si>
-    <t>所有项目(renterembed,renter,
-renterembedfe,payapi,tasktracker,partnerpc,parner,mododa-tasktrasck,bs）</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -172,9 +168,6 @@
   </si>
   <si>
     <t>Parnterpc退房之后的帐务列表</t>
-  </si>
-  <si>
-    <t>不重要</t>
   </si>
   <si>
     <t>LTS框架升级；集群增加任务执行节点</t>
@@ -339,85 +332,25 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>BS</t>
+    <t>所有项目(renterpc,renter,
+renter服务窗后台,payapi,tasktracker,partnerpc,partner,房东个人版，mododa-tasktrasck,bs）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>systemconfig.propertis</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>sysconfig.sync_queue_maxnum=12000</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源同步队列上限</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境</t>
+    <t>TOPT-533</t>
+  </si>
+  <si>
+    <t>房源同步队列上限限制</t>
   </si>
   <si>
     <t>沙周麟</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈铖</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2.7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>不紧急</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源同步队列上限限制</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙周麟</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>无资源测试</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -568,13 +501,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -839,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,11 +1009,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1495,14 +1418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1529,7 +1452,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="249" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1617,51 +1540,54 @@
         <v>26</v>
       </c>
       <c r="F2" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="60">
         <v>42751</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="60">
         <v>42751</v>
       </c>
       <c r="K2" s="59"/>
       <c r="L2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="N2" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="O2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="63"/>
+      <c r="P2" s="63" t="s">
+        <v>40</v>
+      </c>
       <c r="Q2" s="60">
         <v>42746</v>
       </c>
       <c r="R2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="71" t="s">
-        <v>34</v>
-      </c>
+      <c r="T2" s="72"/>
       <c r="U2" s="73"/>
       <c r="V2" s="76"/>
       <c r="W2" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="77"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1669,238 +1595,242 @@
         <v>23</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="60">
         <v>42751</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="60">
         <v>42751</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="63" t="s">
+      <c r="P3" s="63" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>41</v>
       </c>
       <c r="Q3" s="60">
         <v>42751</v>
       </c>
       <c r="R3" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T3" s="72"/>
       <c r="U3" s="73"/>
       <c r="V3" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="52" t="s">
-        <v>44</v>
-      </c>
       <c r="X3" s="77"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="36.75" customHeight="1">
       <c r="A4" s="51">
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="60">
         <v>42751</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="60">
         <v>42751</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="63"/>
+      <c r="P4" s="63" t="s">
+        <v>40</v>
+      </c>
       <c r="Q4" s="60">
         <v>42752</v>
       </c>
       <c r="R4" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="57"/>
+        <v>32</v>
+      </c>
+      <c r="S4" s="81" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="57"/>
       <c r="U4" s="57"/>
       <c r="V4" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W4" s="52"/>
       <c r="X4" s="77"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="40.5" customHeight="1">
       <c r="A5" s="51">
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="60">
         <v>42751</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="J5" s="60">
         <v>42751</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="N5" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P5" s="63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="60">
         <v>42751</v>
       </c>
       <c r="R5" s="63" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="S5" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" s="57"/>
       <c r="U5" s="57"/>
       <c r="V5" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W5" s="76"/>
       <c r="X5" s="77"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="51">
         <v>5</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E6" s="59" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="60">
         <v>42751</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="60">
         <v>42751</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="63" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="N6" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="59" t="s">
         <v>31</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>116</v>
       </c>
       <c r="P6" s="63"/>
       <c r="Q6" s="60">
         <v>42751</v>
       </c>
       <c r="R6" s="63" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
@@ -1909,7 +1839,7 @@
       <c r="W6" s="76"/>
       <c r="X6" s="77"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1935,7 +1865,7 @@
       <c r="W7" s="76"/>
       <c r="X7" s="77"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1961,7 +1891,7 @@
       <c r="W8" s="76"/>
       <c r="X8" s="77"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1987,7 +1917,7 @@
       <c r="W9" s="76"/>
       <c r="X9" s="77"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -2013,7 +1943,7 @@
       <c r="W10" s="76"/>
       <c r="X10" s="77"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -2039,7 +1969,7 @@
       <c r="W11" s="76"/>
       <c r="X11" s="77"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -2065,7 +1995,7 @@
       <c r="W12" s="76"/>
       <c r="X12" s="77"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2091,7 +2021,7 @@
       <c r="W13" s="76"/>
       <c r="X13" s="77"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2117,7 +2047,7 @@
       <c r="W14" s="76"/>
       <c r="X14" s="77"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2143,7 +2073,7 @@
       <c r="W15" s="76"/>
       <c r="X15" s="77"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2169,7 +2099,7 @@
       <c r="W16" s="76"/>
       <c r="X16" s="77"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2195,7 +2125,7 @@
       <c r="W17" s="78"/>
       <c r="X17" s="77"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2220,7 +2150,7 @@
       <c r="V18" s="57"/>
       <c r="W18" s="58"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2245,7 +2175,7 @@
       <c r="V19" s="57"/>
       <c r="W19" s="58"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2270,7 +2200,7 @@
       <c r="V20" s="57"/>
       <c r="W20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2295,7 +2225,7 @@
       <c r="V21" s="57"/>
       <c r="W21" s="76"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2320,7 +2250,7 @@
       <c r="V22" s="57"/>
       <c r="W22" s="76"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2345,7 +2275,7 @@
       <c r="V23" s="57"/>
       <c r="W23" s="76"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2370,7 +2300,7 @@
       <c r="V24" s="74"/>
       <c r="W24" s="79"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2395,7 +2325,7 @@
       <c r="V25" s="75"/>
       <c r="W25" s="79"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2420,7 +2350,7 @@
       <c r="V26" s="80"/>
       <c r="W26" s="79"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2445,7 +2375,7 @@
       <c r="V27" s="75"/>
       <c r="W27" s="79"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2470,7 +2400,7 @@
       <c r="V28" s="75"/>
       <c r="W28" s="79"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2495,7 +2425,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="63"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2520,7 +2450,7 @@
       <c r="V30" s="57"/>
       <c r="W30" s="76"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2545,7 +2475,7 @@
       <c r="V31" s="57"/>
       <c r="W31" s="76"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2570,7 +2500,7 @@
       <c r="V32" s="57"/>
       <c r="W32" s="76"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2595,7 +2525,7 @@
       <c r="V33" s="75"/>
       <c r="W33" s="79"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2620,7 +2550,7 @@
       <c r="V34" s="57"/>
       <c r="W34" s="52"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2645,7 +2575,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="76"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2670,7 +2600,7 @@
       <c r="V36" s="57"/>
       <c r="W36" s="76"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2695,7 +2625,7 @@
       <c r="V37" s="57"/>
       <c r="W37" s="76"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2720,7 +2650,7 @@
       <c r="V38" s="57"/>
       <c r="W38" s="76"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2745,7 +2675,7 @@
       <c r="V39" s="57"/>
       <c r="W39" s="76"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2770,7 +2700,7 @@
       <c r="V40" s="57"/>
       <c r="W40" s="76"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2795,7 +2725,7 @@
       <c r="V41" s="57"/>
       <c r="W41" s="76"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2820,7 +2750,7 @@
       <c r="V42" s="57"/>
       <c r="W42" s="76"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2845,7 +2775,7 @@
       <c r="V43" s="57"/>
       <c r="W43" s="76"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2870,7 +2800,7 @@
       <c r="V44" s="57"/>
       <c r="W44" s="76"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2895,7 +2825,7 @@
       <c r="V45" s="73"/>
       <c r="W45" s="76"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2920,7 +2850,7 @@
       <c r="V46" s="73"/>
       <c r="W46" s="76"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2945,7 +2875,7 @@
       <c r="V47" s="57"/>
       <c r="W47" s="58"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2970,7 +2900,7 @@
       <c r="V48" s="57"/>
       <c r="W48" s="58"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2995,7 +2925,7 @@
       <c r="V49" s="57"/>
       <c r="W49" s="58"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3020,7 +2950,7 @@
       <c r="V50" s="57"/>
       <c r="W50" s="58"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3045,7 +2975,7 @@
       <c r="V51" s="57"/>
       <c r="W51" s="58"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3070,7 +3000,7 @@
       <c r="V52" s="57"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -3095,7 +3025,7 @@
       <c r="V53" s="57"/>
       <c r="W53" s="58"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -3120,7 +3050,7 @@
       <c r="V54" s="57"/>
       <c r="W54" s="58"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3145,7 +3075,7 @@
       <c r="V55" s="57"/>
       <c r="W55" s="58"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3170,7 +3100,7 @@
       <c r="V56" s="57"/>
       <c r="W56" s="58"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3195,7 +3125,7 @@
       <c r="V57" s="57"/>
       <c r="W57" s="58"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3220,7 +3150,7 @@
       <c r="V58" s="57"/>
       <c r="W58" s="58"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3245,7 +3175,7 @@
       <c r="V59" s="57"/>
       <c r="W59" s="58"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3270,7 +3200,7 @@
       <c r="V60" s="57"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3295,7 +3225,7 @@
       <c r="V61" s="57"/>
       <c r="W61" s="58"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3320,7 +3250,7 @@
       <c r="V62" s="57"/>
       <c r="W62" s="58"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3345,7 +3275,7 @@
       <c r="V63" s="57"/>
       <c r="W63" s="58"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3370,7 +3300,7 @@
       <c r="V64" s="57"/>
       <c r="W64" s="58"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3395,7 +3325,7 @@
       <c r="V65" s="57"/>
       <c r="W65" s="58"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3420,7 +3350,7 @@
       <c r="V66" s="57"/>
       <c r="W66" s="58"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3445,7 +3375,7 @@
       <c r="V67" s="57"/>
       <c r="W67" s="58"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3470,7 +3400,7 @@
       <c r="V68" s="57"/>
       <c r="W68" s="58"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3495,7 +3425,7 @@
       <c r="V69" s="57"/>
       <c r="W69" s="58"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3520,7 +3450,7 @@
       <c r="V70" s="57"/>
       <c r="W70" s="58"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3545,7 +3475,7 @@
       <c r="V71" s="57"/>
       <c r="W71" s="58"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3570,7 +3500,7 @@
       <c r="V72" s="57"/>
       <c r="W72" s="58"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3595,7 +3525,7 @@
       <c r="V73" s="57"/>
       <c r="W73" s="58"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3620,7 +3550,7 @@
       <c r="V74" s="57"/>
       <c r="W74" s="58"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3645,7 +3575,7 @@
       <c r="V75" s="57"/>
       <c r="W75" s="58"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3670,7 +3600,7 @@
       <c r="V76" s="57"/>
       <c r="W76" s="58"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3695,7 +3625,7 @@
       <c r="V77" s="57"/>
       <c r="W77" s="58"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3720,7 +3650,7 @@
       <c r="V78" s="57"/>
       <c r="W78" s="58"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3745,7 +3675,7 @@
       <c r="V79" s="57"/>
       <c r="W79" s="58"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3770,7 +3700,7 @@
       <c r="V80" s="57"/>
       <c r="W80" s="58"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3795,7 +3725,7 @@
       <c r="V81" s="57"/>
       <c r="W81" s="58"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3820,7 +3750,7 @@
       <c r="V82" s="57"/>
       <c r="W82" s="58"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3845,7 +3775,7 @@
       <c r="V83" s="57"/>
       <c r="W83" s="58"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3870,7 +3800,7 @@
       <c r="V84" s="57"/>
       <c r="W84" s="58"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3895,7 +3825,7 @@
       <c r="V85" s="57"/>
       <c r="W85" s="58"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -3920,7 +3850,7 @@
       <c r="V86" s="57"/>
       <c r="W86" s="58"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -3945,7 +3875,7 @@
       <c r="V87" s="57"/>
       <c r="W87" s="58"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -3970,7 +3900,7 @@
       <c r="V88" s="57"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -3995,7 +3925,7 @@
       <c r="V89" s="57"/>
       <c r="W89" s="58"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -4020,7 +3950,7 @@
       <c r="V90" s="57"/>
       <c r="W90" s="58"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -4045,7 +3975,7 @@
       <c r="V91" s="57"/>
       <c r="W91" s="58"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -4070,7 +4000,7 @@
       <c r="V92" s="57"/>
       <c r="W92" s="58"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -4095,7 +4025,7 @@
       <c r="V93" s="57"/>
       <c r="W93" s="58"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -4120,7 +4050,7 @@
       <c r="V94" s="57"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4145,7 +4075,7 @@
       <c r="V95" s="57"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4170,7 +4100,7 @@
       <c r="V96" s="57"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4195,7 +4125,7 @@
       <c r="V97" s="57"/>
       <c r="W97" s="58"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4220,7 +4150,7 @@
       <c r="V98" s="57"/>
       <c r="W98" s="58"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4245,7 +4175,7 @@
       <c r="V99" s="57"/>
       <c r="W99" s="58"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4270,7 +4200,7 @@
       <c r="V100" s="57"/>
       <c r="W100" s="58"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4295,7 +4225,7 @@
       <c r="V101" s="57"/>
       <c r="W101" s="58"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4320,7 +4250,7 @@
       <c r="V102" s="57"/>
       <c r="W102" s="58"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4345,7 +4275,7 @@
       <c r="V103" s="57"/>
       <c r="W103" s="58"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4370,7 +4300,7 @@
       <c r="V104" s="57"/>
       <c r="W104" s="58"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4395,7 +4325,7 @@
       <c r="V105" s="57"/>
       <c r="W105" s="58"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4420,7 +4350,7 @@
       <c r="V106" s="57"/>
       <c r="W106" s="58"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4445,7 +4375,7 @@
       <c r="V107" s="57"/>
       <c r="W107" s="58"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4470,7 +4400,7 @@
       <c r="V108" s="57"/>
       <c r="W108" s="58"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4495,7 +4425,7 @@
       <c r="V109" s="57"/>
       <c r="W109" s="58"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4520,7 +4450,7 @@
       <c r="V110" s="57"/>
       <c r="W110" s="58"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4545,7 +4475,7 @@
       <c r="V111" s="57"/>
       <c r="W111" s="58"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4570,7 +4500,7 @@
       <c r="V112" s="57"/>
       <c r="W112" s="58"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4595,7 +4525,7 @@
       <c r="V113" s="57"/>
       <c r="W113" s="58"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4620,7 +4550,7 @@
       <c r="V114" s="57"/>
       <c r="W114" s="58"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4645,7 +4575,7 @@
       <c r="V115" s="57"/>
       <c r="W115" s="58"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4670,7 +4600,7 @@
       <c r="V116" s="57"/>
       <c r="W116" s="58"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4695,7 +4625,7 @@
       <c r="V117" s="57"/>
       <c r="W117" s="58"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4720,7 +4650,7 @@
       <c r="V118" s="57"/>
       <c r="W118" s="58"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4745,7 +4675,7 @@
       <c r="V119" s="57"/>
       <c r="W119" s="58"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4770,7 +4700,7 @@
       <c r="V120" s="57"/>
       <c r="W120" s="58"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4795,7 +4725,7 @@
       <c r="V121" s="57"/>
       <c r="W121" s="58"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4820,7 +4750,7 @@
       <c r="V122" s="57"/>
       <c r="W122" s="58"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4845,7 +4775,7 @@
       <c r="V123" s="57"/>
       <c r="W123" s="58"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4870,7 +4800,7 @@
       <c r="V124" s="57"/>
       <c r="W124" s="58"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4895,7 +4825,7 @@
       <c r="V125" s="57"/>
       <c r="W125" s="58"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4920,7 +4850,7 @@
       <c r="V126" s="57"/>
       <c r="W126" s="58"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -4945,7 +4875,7 @@
       <c r="V127" s="57"/>
       <c r="W127" s="58"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -4970,7 +4900,7 @@
       <c r="V128" s="57"/>
       <c r="W128" s="58"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -4995,7 +4925,7 @@
       <c r="V129" s="57"/>
       <c r="W129" s="58"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -5020,7 +4950,7 @@
       <c r="V130" s="57"/>
       <c r="W130" s="58"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -5045,7 +4975,7 @@
       <c r="V131" s="57"/>
       <c r="W131" s="58"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -5070,7 +5000,7 @@
       <c r="V132" s="57"/>
       <c r="W132" s="58"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -5095,7 +5025,7 @@
       <c r="V133" s="57"/>
       <c r="W133" s="58"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -5120,7 +5050,7 @@
       <c r="V134" s="57"/>
       <c r="W134" s="58"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -5145,7 +5075,7 @@
       <c r="V135" s="57"/>
       <c r="W135" s="58"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5166,7 +5096,7 @@
       <c r="R136" s="58"/>
       <c r="W136" s="58"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5187,7 +5117,7 @@
       <c r="R137" s="58"/>
       <c r="W137" s="58"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5208,7 +5138,7 @@
       <c r="R138" s="58"/>
       <c r="W138" s="58"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5229,7 +5159,7 @@
       <c r="R139" s="58"/>
       <c r="W139" s="58"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5250,7 +5180,7 @@
       <c r="R140" s="58"/>
       <c r="W140" s="58"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5271,7 +5201,7 @@
       <c r="R141" s="58"/>
       <c r="W141" s="58"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5292,7 +5222,7 @@
       <c r="R142" s="58"/>
       <c r="W142" s="58"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5313,7 +5243,7 @@
       <c r="R143" s="58"/>
       <c r="W143" s="58"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5334,7 +5264,7 @@
       <c r="R144" s="58"/>
       <c r="W144" s="58"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5355,7 +5285,7 @@
       <c r="R145" s="58"/>
       <c r="W145" s="58"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5376,7 +5306,7 @@
       <c r="R146" s="58"/>
       <c r="W146" s="58"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5397,7 +5327,7 @@
       <c r="R147" s="58"/>
       <c r="W147" s="58"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5418,7 +5348,7 @@
       <c r="R148" s="58"/>
       <c r="W148" s="58"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5439,7 +5369,7 @@
       <c r="R149" s="58"/>
       <c r="W149" s="58"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5460,7 +5390,7 @@
       <c r="R150" s="58"/>
       <c r="W150" s="58"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5481,7 +5411,7 @@
       <c r="R151" s="58"/>
       <c r="W151" s="58"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5502,7 +5432,7 @@
       <c r="R152" s="58"/>
       <c r="W152" s="58"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5523,7 +5453,7 @@
       <c r="R153" s="58"/>
       <c r="W153" s="58"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5544,7 +5474,7 @@
       <c r="R154" s="58"/>
       <c r="W154" s="58"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5565,7 +5495,7 @@
       <c r="R155" s="58"/>
       <c r="W155" s="58"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5586,7 +5516,7 @@
       <c r="R156" s="58"/>
       <c r="W156" s="58"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5607,7 +5537,7 @@
       <c r="R157" s="58"/>
       <c r="W157" s="58"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5628,7 +5558,7 @@
       <c r="R158" s="58"/>
       <c r="W158" s="58"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5649,7 +5579,7 @@
       <c r="R159" s="58"/>
       <c r="W159" s="58"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5670,7 +5600,7 @@
       <c r="R160" s="58"/>
       <c r="W160" s="58"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5691,7 +5621,7 @@
       <c r="R161" s="58"/>
       <c r="W161" s="58"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5712,7 +5642,7 @@
       <c r="R162" s="58"/>
       <c r="W162" s="58"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5733,7 +5663,7 @@
       <c r="R163" s="58"/>
       <c r="W163" s="58"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="57"/>
@@ -5754,7 +5684,7 @@
       <c r="R164" s="58"/>
       <c r="W164" s="58"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="57"/>
@@ -5775,7 +5705,7 @@
       <c r="R165" s="58"/>
       <c r="W165" s="58"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="57"/>
@@ -5796,7 +5726,7 @@
       <c r="R166" s="58"/>
       <c r="W166" s="58"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="57"/>
       <c r="B167" s="57"/>
       <c r="C167" s="57"/>
@@ -5817,7 +5747,7 @@
       <c r="R167" s="58"/>
       <c r="W167" s="58"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="57"/>
       <c r="B168" s="57"/>
       <c r="C168" s="57"/>
@@ -5838,7 +5768,7 @@
       <c r="R168" s="58"/>
       <c r="W168" s="58"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="57"/>
       <c r="B169" s="57"/>
       <c r="C169" s="57"/>
@@ -5859,7 +5789,7 @@
       <c r="R169" s="58"/>
       <c r="W169" s="58"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="57"/>
       <c r="B170" s="57"/>
       <c r="C170" s="57"/>
@@ -5912,6 +5842,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
     <hyperlink ref="S5" r:id="rId3"/>
+    <hyperlink ref="S4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5919,14 +5850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5946,63 +5877,63 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="L1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="N1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="P1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>65</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>67</v>
       </c>
       <c r="R1" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -6022,7 +5953,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -6042,7 +5973,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6069,14 +6000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -6088,59 +6019,59 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6151,9 +6082,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6164,9 +6095,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6177,9 +6108,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6190,9 +6121,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6203,9 +6134,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6216,9 +6147,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6229,9 +6160,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6242,7 +6173,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6269,352 +6200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16 F4">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6 I4">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6629,119 +6222,95 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>106</v>
-      </c>
+    <row r="4" spans="1:13" ht="16.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6756,7 +6325,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6771,7 +6340,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6786,7 +6355,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6801,7 +6370,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6816,7 +6385,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6831,7 +6400,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6846,7 +6415,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6861,7 +6430,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6876,7 +6445,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6891,7 +6460,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6906,7 +6475,321 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6945,14 +6828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6967,119 +6850,95 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>106</v>
-      </c>
+    <row r="4" spans="1:13" ht="16.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7094,7 +6953,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7109,7 +6968,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7124,7 +6983,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7139,7 +6998,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7154,7 +7013,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7169,7 +7028,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7184,7 +7043,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7199,7 +7058,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7214,7 +7073,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7229,7 +7088,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7244,7 +7103,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7283,14 +7142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7307,119 +7166,95 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>106</v>
-      </c>
+    <row r="4" spans="1:13" ht="16.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7434,7 +7269,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7449,7 +7284,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7464,7 +7299,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7479,7 +7314,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7494,7 +7329,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7509,7 +7344,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7524,7 +7359,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7539,7 +7374,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7554,7 +7389,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7569,7 +7404,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7584,7 +7419,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7614,7 +7449,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7623,14 +7458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7641,33 +7476,33 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7677,7 +7512,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7687,7 +7522,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7697,7 +7532,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7707,7 +7542,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7717,7 +7552,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7727,7 +7562,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7737,7 +7572,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7747,7 +7582,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7757,7 +7592,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7767,7 +7602,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7777,7 +7612,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7787,7 +7622,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7797,7 +7632,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7807,7 +7642,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7817,7 +7652,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7827,7 +7662,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7837,7 +7672,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
